--- a/state_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
+++ b/state_results/Rivers/ManawatuatdsFonterraLongburn_95ff7f9e40.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28559693440644</v>
+        <v>1.2854236193285</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -651,7 +651,7 @@
         <v>0.023</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0215158936509694</v>
+        <v>0.0215148693815694</v>
       </c>
       <c r="H3" t="n">
         <v>0.046</v>
@@ -732,7 +732,7 @@
         <v>0.023</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0215158936509694</v>
+        <v>0.0215148693815694</v>
       </c>
       <c r="H4" t="n">
         <v>0.046</v>
@@ -1153,7 +1153,7 @@
         <v>0.06388000000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>0.112038951598812</v>
+        <v>0.11205979095894</v>
       </c>
       <c r="H9" t="n">
         <v>1.15</v>
@@ -1234,7 +1234,7 @@
         <v>0.06388000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.112038951598812</v>
+        <v>0.11205979095894</v>
       </c>
       <c r="H10" t="n">
         <v>1.15</v>
@@ -1315,7 +1315,7 @@
         <v>0.505</v>
       </c>
       <c r="G11" t="n">
-        <v>0.502385837184846</v>
+        <v>0.5024498136286349</v>
       </c>
       <c r="H11" t="n">
         <v>1.15</v>
@@ -1396,7 +1396,7 @@
         <v>0.505</v>
       </c>
       <c r="G12" t="n">
-        <v>0.502385837184846</v>
+        <v>0.5024498136286349</v>
       </c>
       <c r="H12" t="n">
         <v>1.15</v>
@@ -1473,7 +1473,7 @@
         <v>0.573</v>
       </c>
       <c r="G13" t="n">
-        <v>0.610169491525424</v>
+        <v>0.61015593220339</v>
       </c>
       <c r="H13" t="n">
         <v>1.35</v>
@@ -1550,7 +1550,7 @@
         <v>0.573</v>
       </c>
       <c r="G14" t="n">
-        <v>0.610169491525424</v>
+        <v>0.61015593220339</v>
       </c>
       <c r="H14" t="n">
         <v>1.35</v>
@@ -2020,7 +2020,7 @@
         <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0189226733119863</v>
+        <v>0.0189216490425863</v>
       </c>
       <c r="H20" t="n">
         <v>0.046</v>
@@ -2101,7 +2101,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0189226733119863</v>
+        <v>0.0189216490425863</v>
       </c>
       <c r="H21" t="n">
         <v>0.046</v>
@@ -2522,7 +2522,7 @@
         <v>0.05854</v>
       </c>
       <c r="G26" t="n">
-        <v>0.102593394963852</v>
+        <v>0.102614234323981</v>
       </c>
       <c r="H26" t="n">
         <v>0.6930548502635</v>
@@ -2603,7 +2603,7 @@
         <v>0.05854</v>
       </c>
       <c r="G27" t="n">
-        <v>0.102593394963852</v>
+        <v>0.102614234323981</v>
       </c>
       <c r="H27" t="n">
         <v>0.6930548502635</v>
@@ -2684,7 +2684,7 @@
         <v>0.468</v>
       </c>
       <c r="G28" t="n">
-        <v>0.455284356885589</v>
+        <v>0.455336582553987</v>
       </c>
       <c r="H28" t="n">
         <v>1.15</v>
@@ -2765,7 +2765,7 @@
         <v>0.468</v>
       </c>
       <c r="G29" t="n">
-        <v>0.455284356885589</v>
+        <v>0.455336582553987</v>
       </c>
       <c r="H29" t="n">
         <v>1.15</v>
@@ -2842,7 +2842,7 @@
         <v>0.571</v>
       </c>
       <c r="G30" t="n">
-        <v>0.591254237288136</v>
+        <v>0.5912474576271191</v>
       </c>
       <c r="H30" t="n">
         <v>1.35</v>
@@ -2853,7 +2853,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.332</v>
+        <v>0.33225</v>
       </c>
       <c r="M30" t="n">
         <v>0.89117</v>
@@ -2919,7 +2919,7 @@
         <v>0.571</v>
       </c>
       <c r="G31" t="n">
-        <v>0.591254237288136</v>
+        <v>0.5912474576271191</v>
       </c>
       <c r="H31" t="n">
         <v>1.35</v>
@@ -2930,7 +2930,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.332</v>
+        <v>0.33225</v>
       </c>
       <c r="M31" t="n">
         <v>0.89117</v>
@@ -3308,7 +3308,7 @@
         <v>1.35</v>
       </c>
       <c r="G36" t="n">
-        <v>1.5706642054089</v>
+        <v>1.57059193506088</v>
       </c>
       <c r="H36" t="n">
         <v>5.4</v>
@@ -3389,7 +3389,7 @@
         <v>0.019</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0179923388240941</v>
+        <v>0.0179917323015918</v>
       </c>
       <c r="H37" t="n">
         <v>0.038</v>
@@ -3470,7 +3470,7 @@
         <v>0.019</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0179923388240941</v>
+        <v>0.0179917323015918</v>
       </c>
       <c r="H38" t="n">
         <v>0.038</v>
@@ -3891,7 +3891,7 @@
         <v>0.05741</v>
       </c>
       <c r="G43" t="n">
-        <v>0.101768567029953</v>
+        <v>0.101789406390081</v>
       </c>
       <c r="H43" t="n">
         <v>0.6930548502635</v>
@@ -3972,7 +3972,7 @@
         <v>0.05741</v>
       </c>
       <c r="G44" t="n">
-        <v>0.101768567029953</v>
+        <v>0.101789406390081</v>
       </c>
       <c r="H44" t="n">
         <v>0.6930548502635</v>
@@ -4053,7 +4053,7 @@
         <v>0.4626</v>
       </c>
       <c r="G45" t="n">
-        <v>0.44948192351515</v>
+        <v>0.449525297375346</v>
       </c>
       <c r="H45" t="n">
         <v>1.15</v>
@@ -4134,7 +4134,7 @@
         <v>0.4626</v>
       </c>
       <c r="G46" t="n">
-        <v>0.44948192351515</v>
+        <v>0.449525297375346</v>
       </c>
       <c r="H46" t="n">
         <v>1.15</v>
@@ -4208,27 +4208,27 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5571</v>
       </c>
       <c r="G47" t="n">
-        <v>0.553271186440678</v>
+        <v>0.553262711864407</v>
       </c>
       <c r="H47" t="n">
         <v>1.251</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0983</v>
+        <v>1.09835</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.323</v>
+        <v>0.3227</v>
       </c>
       <c r="M47" t="n">
         <v>0.84837</v>
       </c>
       <c r="N47" t="n">
-        <v>0.96196</v>
+        <v>0.96189</v>
       </c>
       <c r="O47" t="n">
         <v>1816787.423</v>
@@ -4285,27 +4285,27 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5571</v>
       </c>
       <c r="G48" t="n">
-        <v>0.553271186440678</v>
+        <v>0.553262711864407</v>
       </c>
       <c r="H48" t="n">
         <v>1.251</v>
       </c>
       <c r="I48" t="n">
-        <v>1.0983</v>
+        <v>1.09835</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.323</v>
+        <v>0.3227</v>
       </c>
       <c r="M48" t="n">
         <v>0.84837</v>
       </c>
       <c r="N48" t="n">
-        <v>0.96196</v>
+        <v>0.96189</v>
       </c>
       <c r="O48" t="n">
         <v>1816787.423</v>
@@ -4677,7 +4677,7 @@
         <v>1.6</v>
       </c>
       <c r="G53" t="n">
-        <v>1.70595677264546</v>
+        <v>1.70588597720249</v>
       </c>
       <c r="H53" t="n">
         <v>5.4</v>
@@ -4758,7 +4758,7 @@
         <v>0.017</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0167757998436925</v>
+        <v>0.0167752034298986</v>
       </c>
       <c r="H54" t="n">
         <v>0.038</v>
@@ -4839,7 +4839,7 @@
         <v>0.017</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0167757998436925</v>
+        <v>0.0167752034298986</v>
       </c>
       <c r="H55" t="n">
         <v>0.038</v>
@@ -5260,7 +5260,7 @@
         <v>0.06388000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>0.108693527320954</v>
+        <v>0.108691235006214</v>
       </c>
       <c r="H60" t="n">
         <v>0.6930548502635</v>
@@ -5341,7 +5341,7 @@
         <v>0.06388000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>0.108693527320954</v>
+        <v>0.108691235006214</v>
       </c>
       <c r="H61" t="n">
         <v>0.6930548502635</v>
@@ -5577,27 +5577,27 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.545</v>
+        <v>0.5452</v>
       </c>
       <c r="G64" t="n">
-        <v>0.547783333333333</v>
+        <v>0.547766666666667</v>
       </c>
       <c r="H64" t="n">
         <v>1.251</v>
       </c>
       <c r="I64" t="n">
-        <v>1.097</v>
+        <v>1.09705</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.321</v>
+        <v>0.32085</v>
       </c>
       <c r="M64" t="n">
         <v>0.8363</v>
       </c>
       <c r="N64" t="n">
-        <v>0.9594</v>
+        <v>0.95931</v>
       </c>
       <c r="O64" t="n">
         <v>1816787.423</v>
@@ -5654,27 +5654,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.545</v>
+        <v>0.5452</v>
       </c>
       <c r="G65" t="n">
-        <v>0.547783333333333</v>
+        <v>0.547766666666667</v>
       </c>
       <c r="H65" t="n">
         <v>1.251</v>
       </c>
       <c r="I65" t="n">
-        <v>1.097</v>
+        <v>1.09705</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.321</v>
+        <v>0.32085</v>
       </c>
       <c r="M65" t="n">
         <v>0.8363</v>
       </c>
       <c r="N65" t="n">
-        <v>0.9594</v>
+        <v>0.95931</v>
       </c>
       <c r="O65" t="n">
         <v>1816787.423</v>
@@ -6046,7 +6046,7 @@
         <v>1.575</v>
       </c>
       <c r="G70" t="n">
-        <v>1.60414074749335</v>
+        <v>1.60407880148075</v>
       </c>
       <c r="H70" t="n">
         <v>5.4</v>
@@ -6127,7 +6127,7 @@
         <v>0.0155</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0164594588843658</v>
+        <v>0.0164581132399518</v>
       </c>
       <c r="H71" t="n">
         <v>0.052</v>
@@ -6208,7 +6208,7 @@
         <v>0.0155</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0164594588843658</v>
+        <v>0.0164581132399518</v>
       </c>
       <c r="H72" t="n">
         <v>0.052</v>
@@ -6629,7 +6629,7 @@
         <v>0.06083</v>
       </c>
       <c r="G77" t="n">
-        <v>0.104116170235066</v>
+        <v>0.104108132445364</v>
       </c>
       <c r="H77" t="n">
         <v>0.6930548502635</v>
@@ -6710,7 +6710,7 @@
         <v>0.06083</v>
       </c>
       <c r="G78" t="n">
-        <v>0.104116170235066</v>
+        <v>0.104108132445364</v>
       </c>
       <c r="H78" t="n">
         <v>0.6930548502635</v>
@@ -6946,21 +6946,21 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.5315</v>
+        <v>0.53165</v>
       </c>
       <c r="G81" t="n">
-        <v>0.549966666666667</v>
+        <v>0.54995</v>
       </c>
       <c r="H81" t="n">
         <v>1.26</v>
       </c>
       <c r="I81" t="n">
-        <v>1.097</v>
+        <v>1.09705</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.323</v>
+        <v>0.3227</v>
       </c>
       <c r="M81" t="n">
         <v>0.8038</v>
@@ -7023,21 +7023,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.5315</v>
+        <v>0.53165</v>
       </c>
       <c r="G82" t="n">
-        <v>0.549966666666667</v>
+        <v>0.54995</v>
       </c>
       <c r="H82" t="n">
         <v>1.26</v>
       </c>
       <c r="I82" t="n">
-        <v>1.097</v>
+        <v>1.09705</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.323</v>
+        <v>0.3227</v>
       </c>
       <c r="M82" t="n">
         <v>0.8038</v>
@@ -7415,7 +7415,7 @@
         <v>1.3</v>
       </c>
       <c r="G87" t="n">
-        <v>1.39294529578294</v>
+        <v>1.39288443654249</v>
       </c>
       <c r="H87" t="n">
         <v>5.4</v>
@@ -7496,7 +7496,7 @@
         <v>0.018</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0178336590406733</v>
+        <v>0.0178329098100532</v>
       </c>
       <c r="H88" t="n">
         <v>0.052</v>
@@ -7577,7 +7577,7 @@
         <v>0.018</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0178336590406733</v>
+        <v>0.0178329098100532</v>
       </c>
       <c r="H89" t="n">
         <v>0.052</v>
@@ -7998,7 +7998,7 @@
         <v>0.04926</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0812638197030686</v>
+        <v>0.08125578191336701</v>
       </c>
       <c r="H94" t="n">
         <v>0.595</v>
@@ -8079,7 +8079,7 @@
         <v>0.04926</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0812638197030686</v>
+        <v>0.08125578191336701</v>
       </c>
       <c r="H95" t="n">
         <v>0.595</v>
@@ -8315,24 +8315,24 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.5205</v>
+        <v>0.52055</v>
       </c>
       <c r="G98" t="n">
-        <v>0.562383333333333</v>
+        <v>0.562368333333333</v>
       </c>
       <c r="H98" t="n">
         <v>1.26</v>
       </c>
       <c r="I98" t="n">
-        <v>1.097</v>
+        <v>1.09705</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.321</v>
+        <v>0.32085</v>
       </c>
       <c r="M98" t="n">
-        <v>0.8793</v>
+        <v>0.87921</v>
       </c>
       <c r="N98" t="n">
         <v>1.043</v>
@@ -8392,24 +8392,24 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.5205</v>
+        <v>0.52055</v>
       </c>
       <c r="G99" t="n">
-        <v>0.562383333333333</v>
+        <v>0.562368333333333</v>
       </c>
       <c r="H99" t="n">
         <v>1.26</v>
       </c>
       <c r="I99" t="n">
-        <v>1.097</v>
+        <v>1.09705</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.321</v>
+        <v>0.32085</v>
       </c>
       <c r="M99" t="n">
-        <v>0.8793</v>
+        <v>0.87921</v>
       </c>
       <c r="N99" t="n">
         <v>1.043</v>
@@ -8784,7 +8784,7 @@
         <v>0.9</v>
       </c>
       <c r="G104" t="n">
-        <v>1.06847161157241</v>
+        <v>1.06841075233197</v>
       </c>
       <c r="H104" t="n">
         <v>4.16</v>
@@ -8865,7 +8865,7 @@
         <v>0.0195</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0191860313370719</v>
+        <v>0.0191833807396703</v>
       </c>
       <c r="H105" t="n">
         <v>0.052</v>
@@ -8946,7 +8946,7 @@
         <v>0.0195</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0191860313370719</v>
+        <v>0.0191833807396703</v>
       </c>
       <c r="H106" t="n">
         <v>0.052</v>
@@ -9367,7 +9367,7 @@
         <v>0.04593</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0748619375554606</v>
+        <v>0.0748536226005968</v>
       </c>
       <c r="H111" t="n">
         <v>0.327724048514992</v>
@@ -9448,7 +9448,7 @@
         <v>0.04593</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0748619375554606</v>
+        <v>0.0748536226005968</v>
       </c>
       <c r="H112" t="n">
         <v>0.327724048514992</v>
@@ -9687,21 +9687,21 @@
         <v>0.57</v>
       </c>
       <c r="G115" t="n">
-        <v>0.58785</v>
+        <v>0.587831666666667</v>
       </c>
       <c r="H115" t="n">
         <v>1.26</v>
       </c>
       <c r="I115" t="n">
-        <v>1.077</v>
+        <v>1.07705</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
-        <v>0.322</v>
+        <v>0.32185</v>
       </c>
       <c r="M115" t="n">
-        <v>0.8793</v>
+        <v>0.87921</v>
       </c>
       <c r="N115" t="n">
         <v>1.029</v>
@@ -9764,21 +9764,21 @@
         <v>0.57</v>
       </c>
       <c r="G116" t="n">
-        <v>0.58785</v>
+        <v>0.587831666666667</v>
       </c>
       <c r="H116" t="n">
         <v>1.26</v>
       </c>
       <c r="I116" t="n">
-        <v>1.077</v>
+        <v>1.07705</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
-        <v>0.322</v>
+        <v>0.32185</v>
       </c>
       <c r="M116" t="n">
-        <v>0.8793</v>
+        <v>0.87921</v>
       </c>
       <c r="N116" t="n">
         <v>1.029</v>
@@ -10234,7 +10234,7 @@
         <v>0.02</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0195193646704053</v>
+        <v>0.0195167140730036</v>
       </c>
       <c r="H122" t="n">
         <v>0.052</v>
@@ -10315,7 +10315,7 @@
         <v>0.02</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0195193646704053</v>
+        <v>0.0195167140730036</v>
       </c>
       <c r="H123" t="n">
         <v>0.052</v>
@@ -10736,7 +10736,7 @@
         <v>0.07241</v>
       </c>
       <c r="G128" t="n">
-        <v>0.115154143880176</v>
+        <v>0.115145683048911</v>
       </c>
       <c r="H128" t="n">
         <v>1</v>
@@ -10817,7 +10817,7 @@
         <v>0.07241</v>
       </c>
       <c r="G129" t="n">
-        <v>0.115154143880176</v>
+        <v>0.115145683048911</v>
       </c>
       <c r="H129" t="n">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>0.59</v>
       </c>
       <c r="G132" t="n">
-        <v>0.604</v>
+        <v>0.603983333333333</v>
       </c>
       <c r="H132" t="n">
         <v>1.26</v>
@@ -11067,10 +11067,10 @@
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
-        <v>0.362</v>
+        <v>0.3619</v>
       </c>
       <c r="M132" t="n">
-        <v>0.8793</v>
+        <v>0.87921</v>
       </c>
       <c r="N132" t="n">
         <v>0.987</v>
@@ -11133,7 +11133,7 @@
         <v>0.59</v>
       </c>
       <c r="G133" t="n">
-        <v>0.604</v>
+        <v>0.603983333333333</v>
       </c>
       <c r="H133" t="n">
         <v>1.26</v>
@@ -11144,10 +11144,10 @@
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
-        <v>0.362</v>
+        <v>0.3619</v>
       </c>
       <c r="M133" t="n">
-        <v>0.8793</v>
+        <v>0.87921</v>
       </c>
       <c r="N133" t="n">
         <v>0.987</v>
@@ -11522,7 +11522,7 @@
         <v>0.68</v>
       </c>
       <c r="G138" t="n">
-        <v>0.921551401425781</v>
+        <v>0.92147889514294</v>
       </c>
       <c r="H138" t="n">
         <v>3.502</v>
@@ -11603,7 +11603,7 @@
         <v>0.018</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0192569810207511</v>
+        <v>0.0192542854979698</v>
       </c>
       <c r="H139" t="n">
         <v>0.052</v>
@@ -11684,7 +11684,7 @@
         <v>0.018</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0192569810207511</v>
+        <v>0.0192542854979698</v>
       </c>
       <c r="H140" t="n">
         <v>0.052</v>
@@ -12105,7 +12105,7 @@
         <v>0.07241</v>
       </c>
       <c r="G145" t="n">
-        <v>0.120046971136738</v>
+        <v>0.12004046682546</v>
       </c>
       <c r="H145" t="n">
         <v>1</v>
@@ -12186,7 +12186,7 @@
         <v>0.07241</v>
       </c>
       <c r="G146" t="n">
-        <v>0.120046971136738</v>
+        <v>0.12004046682546</v>
       </c>
       <c r="H146" t="n">
         <v>1</v>
@@ -12891,7 +12891,7 @@
         <v>0.38</v>
       </c>
       <c r="G155" t="n">
-        <v>0.806695049705946</v>
+        <v>0.806615829878398</v>
       </c>
       <c r="H155" t="n">
         <v>3.502</v>
@@ -12972,7 +12972,7 @@
         <v>0.018</v>
       </c>
       <c r="G156" t="n">
-        <v>0.019057133414253</v>
+        <v>0.019055059195946</v>
       </c>
       <c r="H156" t="n">
         <v>0.044</v>
@@ -13053,7 +13053,7 @@
         <v>0.018</v>
       </c>
       <c r="G157" t="n">
-        <v>0.019057133414253</v>
+        <v>0.019055059195946</v>
       </c>
       <c r="H157" t="n">
         <v>0.044</v>
@@ -14260,7 +14260,7 @@
         <v>0.32</v>
       </c>
       <c r="G172" t="n">
-        <v>0.761112911920839</v>
+        <v>0.761025608437418</v>
       </c>
       <c r="H172" t="n">
         <v>3.502</v>
@@ -14341,7 +14341,7 @@
         <v>0.018</v>
       </c>
       <c r="G173" t="n">
-        <v>0.018057133414253</v>
+        <v>0.018055059195946</v>
       </c>
       <c r="H173" t="n">
         <v>0.042</v>
@@ -14422,7 +14422,7 @@
         <v>0.018</v>
       </c>
       <c r="G174" t="n">
-        <v>0.018057133414253</v>
+        <v>0.018055059195946</v>
       </c>
       <c r="H174" t="n">
         <v>0.042</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.72230329390284</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.502</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="M189" t="n">
+        <v>1.68236</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.0181818181818182</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.03275</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.0181818181818182</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.03275</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>325</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1566.27272727273</v>
+      </c>
+      <c r="H192" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I192" t="n">
+        <v>7258.75</v>
+      </c>
+      <c r="J192" t="n">
+        <v>40</v>
+      </c>
+      <c r="K192" t="n">
+        <v>52.7272727272727</v>
+      </c>
+      <c r="L192" t="n">
+        <v>325</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N192" t="n">
+        <v>4049.8</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>325</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1566.27272727273</v>
+      </c>
+      <c r="H193" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I193" t="n">
+        <v>7258.75</v>
+      </c>
+      <c r="J193" t="n">
+        <v>40</v>
+      </c>
+      <c r="K193" t="n">
+        <v>52.7272727272727</v>
+      </c>
+      <c r="L193" t="n">
+        <v>325</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N193" t="n">
+        <v>4049.8</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>325</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1566.27272727273</v>
+      </c>
+      <c r="H194" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I194" t="n">
+        <v>7258.75</v>
+      </c>
+      <c r="J194" t="n">
+        <v>40</v>
+      </c>
+      <c r="K194" t="n">
+        <v>52.7272727272727</v>
+      </c>
+      <c r="L194" t="n">
+        <v>325</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N194" t="n">
+        <v>4049.8</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>325</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1566.27272727273</v>
+      </c>
+      <c r="H195" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I195" t="n">
+        <v>7258.75</v>
+      </c>
+      <c r="J195" t="n">
+        <v>40</v>
+      </c>
+      <c r="K195" t="n">
+        <v>52.7272727272727</v>
+      </c>
+      <c r="L195" t="n">
+        <v>325</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1790</v>
+      </c>
+      <c r="N195" t="n">
+        <v>4049.8</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.06879</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.11904349608617</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.53533</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.09150999999999999</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.16874</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.23394</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.06879</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.11904349608617</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.53533</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.09150999999999999</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.16874</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.23394</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.457472727272727</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0.9295</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0.78105</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.9151</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.457472727272727</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0.9295</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0.78105</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.9151</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.582709090909091</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="I200" t="n">
+        <v>1.00875</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.8338</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.581</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.582709090909091</v>
+      </c>
+      <c r="H201" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="I201" t="n">
+        <v>1.00875</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.8338</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.9792</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.873454545454545</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1.1915</v>
+      </c>
+      <c r="N202" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.873454545454545</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I203" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1.1915</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.109127272727273</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.44025</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.3453</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Manawatu at ds Fonterra Longburn</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.109127272727273</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0.654</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.44025</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.1929</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.3453</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1816787.423</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5524193.555</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Palmerston North City</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Lower Manawatu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_11a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
